--- a/level_data_CCI_Breakdown.xlsx
+++ b/level_data_CCI_Breakdown.xlsx
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Authorization and Permissions</t>
+          <t>Authority and Purpose</t>
         </is>
       </c>
       <c r="C16" s="4" t="n">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Authorization and Permissions</t>
+          <t>Authority and Purpose</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">

--- a/level_data_CCI_Breakdown.xlsx
+++ b/level_data_CCI_Breakdown.xlsx
@@ -1446,7 +1446,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Controls by Family Across Levels</t>
+          <t>Controls by Family Across Levels (Rev 5)</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>CCI Count by Family Across Levels</t>
+          <t>CCI Count by Family Across Levels (Rev 5)</t>
         </is>
       </c>
     </row>
